--- a/flows/SHY_fund_flow_data.xlsx
+++ b/flows/SHY_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B218"/>
+  <dimension ref="A1:B221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2615,6 +2615,36 @@
         <v>16.21558</v>
       </c>
     </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>-113.31208</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>-153.78334</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2023-11-14</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>8.10004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
